--- a/superannuation_data_excel.xlsx
+++ b/superannuation_data_excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="107">
   <si>
     <t>AMG Super</t>
   </si>
@@ -342,6 +342,9 @@
   </si>
   <si>
     <t>Annual Return</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -396,12 +399,16 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,2751 +688,4116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B342"/>
+  <dimension ref="A1:C342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="46.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>2014</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
         <v>5.4278175650207311E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <f>A2</f>
+        <v>2014</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
         <v>6.3884967472457102E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A67" si="0">A3</f>
+        <v>2014</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
         <v>5.9105339105339105E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C5" s="1">
         <v>3.8861009134829483E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C6" s="1">
         <v>9.8876297154321079E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C7" s="1">
         <v>7.8335799460353392E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1">
+      <c r="C8" s="1">
         <v>1.62424472363999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="C9" s="1">
         <v>1.0545921492714614E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="1">
+      <c r="C10" s="1">
         <v>1.7535553491031232E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
         <v>2.0922718794161393E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="1">
+      <c r="C12" s="1">
         <v>3.2757947963354636E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="1">
+      <c r="C13" s="1">
         <v>4.8897762927346084E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1">
+      <c r="C14" s="1">
         <v>8.5980174812422903E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="1">
+      <c r="C15" s="1">
         <v>-3.3006023599306875E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="1">
+      <c r="C16" s="1">
         <v>1.0013656053909682E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="1">
+      <c r="C17" s="1">
         <v>7.5486403627698278E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1">
+      <c r="C18" s="1">
         <v>6.4692933195561343E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="1">
+      <c r="C19" s="1">
         <v>6.4580848764568361E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
         <v>7.1919935196750953E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
         <v>5.6245397831254209E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="1">
+      <c r="C22" s="1">
         <v>3.3970276008492568E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="1">
+      <c r="C23" s="1">
         <v>-0.10731018353291367</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="1">
+      <c r="C24" s="1">
         <v>-2.4180057076181237E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="1">
+      <c r="C25" s="1">
         <v>2.3026461253004087E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="1">
+      <c r="C26" s="1">
         <v>1.0200339210054374E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="1">
+      <c r="C27" s="1">
         <v>1.1038381511967232E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="1">
+      <c r="C28" s="1">
         <v>9.4319366975211399E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="1">
+      <c r="C29" s="1">
         <v>1.4055128582027914E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="1">
+      <c r="C30" s="1">
         <v>4.3996539903980187E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="1">
+      <c r="C31" s="1">
         <v>0.15</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B32" s="1">
+      <c r="C32" s="1">
         <v>9.6534533036857651E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="1">
+      <c r="C33" s="1">
         <v>1.5401211302019703E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="1">
+      <c r="C34" s="1">
         <v>1.0079278120974798E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="1">
+      <c r="C35" s="1">
         <v>7.06715043419386E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="1">
+      <c r="C36" s="1">
         <v>-1.8418090657935128E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="1">
+      <c r="C37" s="1">
         <v>1.6823103163336652E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="1">
+      <c r="C38" s="1">
         <v>5.7947019867549661E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="1">
+      <c r="C39" s="1">
         <v>2.9154640684881587E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B40" s="1">
+      <c r="C40" s="1">
         <v>2.3751720481934848E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="1">
+      <c r="C41" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="1">
+      <c r="C42" s="1">
         <v>4.9701121633420643E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B43" s="1">
+      <c r="C43" s="1">
         <v>9.326300544813905E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B44" s="1">
+      <c r="C44" s="1">
         <v>4.7663118682115821E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="1">
+      <c r="C45" s="1">
         <v>1.0690863805726567E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B46" s="1">
+      <c r="C46" s="1">
         <v>4.7092292627227347E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="1">
+      <c r="C47" s="1">
         <v>8.7275859792191445E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="1">
+      <c r="C48" s="1">
         <v>6.3950575301100834E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="1">
+      <c r="C49" s="1">
         <v>9.8904141826721519E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="1">
+      <c r="C50" s="1">
         <v>-1.2306959387034023E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B51" s="1">
+      <c r="C51" s="1">
         <v>1.017106892177159E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B52" s="1">
+      <c r="C52" s="1">
         <v>0.19173238202528475</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="1">
+      <c r="C53" s="1">
         <v>2.2970480942248985E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B54" s="1">
+      <c r="C54" s="1">
         <v>6.5717299937815389E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B55" s="1">
+      <c r="C55" s="1">
         <v>7.888875475877204E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="1">
+      <c r="C56" s="1">
         <v>1.2385106714441504E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B57" s="1">
+      <c r="C57" s="1">
         <v>-1.0984019553699524E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B58" s="1">
+      <c r="C58" s="1">
         <v>5.0839160753723594E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B59" s="1">
+      <c r="C59" s="1">
         <v>2.2002014331546521E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="1">
+      <c r="C60" s="1">
         <v>5.7367785182587004E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="1">
+      <c r="C61" s="1">
         <v>5.4599406528189912E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="1">
+      <c r="C62" s="1">
         <v>4.5592234661850223E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="2" t="s">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="1">
+      <c r="C63" s="1">
         <v>6.4852215772349823E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="1">
+      <c r="C64" s="1">
         <v>-3.4182790279816814E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B65" s="1">
+      <c r="C65" s="1">
         <v>-9.9653501605724256E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B66" s="1">
+      <c r="C66" s="1">
         <v>-1.3296955173702505E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <f t="shared" si="0"/>
+        <v>2014</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="1">
+      <c r="C67" s="1">
         <v>3.9326330357181338E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <f t="shared" ref="A68:A114" si="1">A67</f>
+        <v>2014</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B68" s="1">
+      <c r="C68" s="1">
         <v>7.3927829474702868E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B69" s="1">
+      <c r="C69" s="1">
         <v>6.6153758556114495E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B70" s="1">
+      <c r="C70" s="1">
         <v>9.602107729542347E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="1">
+      <c r="C71" s="1">
         <v>-3.0749449241342622E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B72" s="1">
+      <c r="C72" s="1">
         <v>9.2246109280334256E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="1">
+      <c r="C73" s="1">
         <v>8.2588846079796052E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B74" s="1">
+      <c r="C74" s="1">
         <v>6.3758017982152764E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B75" s="1">
+      <c r="C75" s="1">
         <v>1.4047980524862978E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B76" s="1">
+      <c r="C76" s="1">
         <v>0.18805110147542412</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B77" s="1">
+      <c r="C77" s="1">
         <v>-2.9139348527422206E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="1">
+      <c r="C78" s="1">
         <v>-3.9304708028667243E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B79" s="1">
+      <c r="C79" s="1">
         <v>6.3097115474589028E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="1">
+      <c r="C80" s="1">
         <v>-8.6787407317369641E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B81" s="1">
+      <c r="C81" s="1">
         <v>1.7034389619692142E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B82" s="1">
+      <c r="C82" s="1">
         <v>1.0579611577117813E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B83" s="1">
+      <c r="C83" s="1">
         <v>4.7181646351517007E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" s="2" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B84" s="1">
+      <c r="C84" s="1">
         <v>9.6873699080740599E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" s="2" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B85" s="1">
+      <c r="C85" s="1">
         <v>2.1078839649333264E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" s="2" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B86" s="1">
+      <c r="C86" s="1">
         <v>5.7270082396042839E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B87" s="1">
+      <c r="C87" s="1">
         <v>9.9838827144266944E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" s="2" t="s">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B88" s="1">
+      <c r="C88" s="1">
         <v>4.0079528734421742E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" s="2" t="s">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B89" s="1">
+      <c r="C89" s="1">
         <v>-8.8544307328800183E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B90" s="1">
+      <c r="C90" s="1">
         <v>-3.9750141964792728E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B91" s="1">
+      <c r="C91" s="1">
         <v>1.7589209143565785E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B92" s="1">
+      <c r="C92" s="1">
         <v>7.3743971555850401E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B93" s="1">
+      <c r="C93" s="1">
         <v>2.7180812331247625E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B94" s="1">
+      <c r="C94" s="1">
         <v>2.5399058664991592E-3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B95" s="1">
+      <c r="C95" s="1">
         <v>0.18036747879930004</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B96" s="1">
+      <c r="C96" s="1">
         <v>6.598634735317333E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B97" s="1">
+      <c r="C97" s="1">
         <v>5.5923581538926889E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B98" s="1">
+      <c r="C98" s="1">
         <v>3.4515060757589746E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B99" s="1">
+      <c r="C99" s="1">
         <v>4.0435553657718268E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" s="2" t="s">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B100" s="1">
+      <c r="C100" s="1">
         <v>-1.6137928216861071E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" s="2" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B101" s="1">
+      <c r="C101" s="1">
         <v>3.3514162265962551E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" s="2" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B102" s="1">
+      <c r="C102" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" s="2" t="s">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B103" s="1">
+      <c r="C103" s="1">
         <v>5.9559972608031466E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" s="2" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B104" s="1">
+      <c r="C104" s="1">
         <v>-1.3601566018141547E-3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" s="2" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B105" s="1">
+      <c r="C105" s="1">
         <v>-1.6465761507166038E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B106" s="1">
+      <c r="C106" s="1">
         <v>6.4598495821892041E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" s="2" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B107" s="1">
+      <c r="C107" s="1">
         <v>4.0358839674467274E-3</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" s="2" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B108" s="1">
+      <c r="C108" s="1">
         <v>1.9169100127196834E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" s="2" t="s">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B109" s="1">
+      <c r="C109" s="1">
         <v>1.0430066553771178E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" s="2" t="s">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B110" s="1">
+      <c r="C110" s="1">
         <v>1.5168649710730269E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" s="2" t="s">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B111" s="1">
+      <c r="C111" s="1">
         <v>5.3761536640425907E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" s="2" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B112" s="1">
+      <c r="C112" s="1">
         <v>7.9206130337485022E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" s="2" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B113" s="1">
+      <c r="C113" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="2" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <f t="shared" si="1"/>
+        <v>2014</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B114" s="1">
+      <c r="C114" s="1">
         <v>-0.1190582625540158</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>2015</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="1">
+      <c r="C115" s="1">
         <v>6.2039909255058104E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <f>A115</f>
+        <v>2015</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B116" s="1">
+      <c r="C116" s="1">
         <v>5.2721309045086449E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <f t="shared" ref="A117:A180" si="2">A116</f>
+        <v>2015</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B117" s="1">
+      <c r="C117" s="1">
         <v>4.5579742336739226E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="2" t="s">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B118" s="1">
+      <c r="C118" s="1">
         <v>3.4792052414186016E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B119" s="1">
+      <c r="C119" s="1">
         <v>1.2734206905467676E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="2" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="1">
+      <c r="C120" s="1">
         <v>5.3084077119497732E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="2" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B121" s="1">
+      <c r="C121" s="1">
         <v>2.2492367160583737E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="2" t="s">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B122" s="1">
+      <c r="C122" s="1">
         <v>1.3775850202650297E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="2" t="s">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B123" s="1">
+      <c r="C123" s="1">
         <v>2.2455993397469853E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="2" t="s">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B124" s="1">
+      <c r="C124" s="1">
         <v>8.4646448551875357E-3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="2" t="s">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B125" s="1">
+      <c r="C125" s="1">
         <v>5.5062870109252376E-3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="2" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B126" s="1">
+      <c r="C126" s="1">
         <v>1.4062935628600941E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="2" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B127" s="1">
+      <c r="C127" s="1">
         <v>-9.8154654810237471E-4</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="2" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B128" s="1">
+      <c r="C128" s="1">
         <v>6.3593256277001712E-3</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="2" t="s">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B129" s="1">
+      <c r="C129" s="1">
         <v>1.727324168473799E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="2" t="s">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B130" s="1">
+      <c r="C130" s="1">
         <v>5.3365769350275675E-3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="2" t="s">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B131" s="1">
+      <c r="C131" s="1">
         <v>2.8340700623939439E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="2" t="s">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B132" s="1">
+      <c r="C132" s="1">
         <v>2.8349075247713676E-3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B133" s="1">
+      <c r="C133" s="1">
         <v>2.8358450818343865E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="2" t="s">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B134" s="1">
+      <c r="C134" s="1">
         <v>2.0519814754412715E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B135" s="1">
+      <c r="C135" s="1">
         <v>3.8246418629052045E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="2" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B136" s="1">
+      <c r="C136" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B137" s="1">
+      <c r="C137" s="1">
         <v>-6.0287124473191946E-4</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="2" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B138" s="1">
+      <c r="C138" s="1">
         <v>6.3071013289036542E-4</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B139" s="1">
+      <c r="C139" s="1">
         <v>-2.5846484389092208E-3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B140" s="1">
+      <c r="C140" s="1">
         <v>8.4323084728882142E-3</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B141" s="1">
+      <c r="C141" s="1">
         <v>5.3873027105956935E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="2" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B142" s="1">
+      <c r="C142" s="1">
         <v>3.3854477861403527E-3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="2" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B143" s="1">
+      <c r="C143" s="1">
         <v>7.8907989530357329E-3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="2" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B144" s="1">
+      <c r="C144" s="1">
         <v>-9.000266094823673E-4</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" s="2" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B145" s="1">
+      <c r="C145" s="1">
         <v>1.0151278350669648E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" s="2" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B146" s="1">
+      <c r="C146" s="1">
         <v>2.9733709985535223E-3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" s="2" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B147" s="1">
+      <c r="C147" s="1">
         <v>1.1375244539601055E-4</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" s="2" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B148" s="1">
+      <c r="C148" s="1">
         <v>5.8777488447702324E-3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" s="2" t="s">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B149" s="1">
+      <c r="C149" s="1">
         <v>2.4843299264448206E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" s="2" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B150" s="1">
+      <c r="C150" s="1">
         <v>-9.6420392913101124E-4</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B151" s="1">
+      <c r="C151" s="1">
         <v>1.6505303838489562E-3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" s="2" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B152" s="1">
+      <c r="C152" s="1">
         <v>1.4349369382977116E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" s="2" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B153" s="1">
+      <c r="C153" s="1">
         <v>-3.4928247400340443E-3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" s="2" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B154" s="1">
+      <c r="C154" s="1">
         <v>3.3987637336020306E-3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" s="2" t="s">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B155" s="1">
+      <c r="C155" s="1">
         <v>7.2029232469729186E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" s="2" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B156" s="1">
+      <c r="C156" s="1">
         <v>4.8781554884718033E-3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" s="2" t="s">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B157" s="1">
+      <c r="C157" s="1">
         <v>7.0122954723529363E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" s="2" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B158" s="1">
+      <c r="C158" s="1">
         <v>1.107789538884704E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" s="2" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B159" s="1">
+      <c r="C159" s="1">
         <v>5.7932445621644013E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" s="2" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B160" s="1">
+      <c r="C160" s="1">
         <v>-1.2943712933766167E-3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="2" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B161" s="1">
+      <c r="C161" s="1">
         <v>5.412815600070296E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="2" t="s">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B162" s="1">
+      <c r="C162" s="1">
         <v>-2.25807848217882E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="2" t="s">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B163" s="1">
+      <c r="C163" s="1">
         <v>-5.8191143110760428E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="2" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B164" s="1">
+      <c r="C164" s="1">
         <v>-1.6694787319065801E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" s="2" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B165" s="1">
+      <c r="C165" s="1">
         <v>1.2916307591184105E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" s="2" t="s">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B166" s="1">
+      <c r="C166" s="1">
         <v>-1.3717061983621714E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" s="2" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B167" s="1">
+      <c r="C167" s="1">
         <v>2.9464910246997007E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" s="2" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B168" s="1">
+      <c r="C168" s="1">
         <v>2.5585353806354405E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B169" s="1">
+      <c r="C169" s="1">
         <v>3.1066594925706716E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" s="2" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B170" s="1">
+      <c r="C170" s="1">
         <v>8.5701690695985898E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B171" s="1">
+      <c r="C171" s="1">
         <v>-1.2470307978404811E-3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" s="2" t="s">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B172" s="1">
+      <c r="C172" s="1">
         <v>6.074352873053644E-3</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B173" s="1">
+      <c r="C173" s="1">
         <v>4.7335174537199813E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" s="2" t="s">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B174" s="1">
+      <c r="C174" s="1">
         <v>1.3148106821394034E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B175" s="1">
+      <c r="C175" s="1">
         <v>2.4849814243933285E-3</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" s="2" t="s">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B176" s="1">
+      <c r="C176" s="1">
         <v>6.2283737024221462E-3</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B177" s="1">
+      <c r="C177" s="1">
         <v>-7.7468504667842819E-5</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="2" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B178" s="1">
+      <c r="C178" s="1">
         <v>-5.6841557070546331E-4</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B179" s="1">
+      <c r="C179" s="1">
         <v>1.3208764793994186E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="2" t="s">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <f t="shared" si="2"/>
+        <v>2015</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B180" s="1">
+      <c r="C180" s="1">
         <v>2.3958043440037353E-4</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" s="2" t="s">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <f t="shared" ref="A181:A230" si="3">A180</f>
+        <v>2015</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B181" s="1">
+      <c r="C181" s="1">
         <v>2.4064814567234419E-4</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" s="2" t="s">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B182" s="1">
+      <c r="C182" s="1">
         <v>1.0767733480847338E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B183" s="1">
+      <c r="C183" s="1">
         <v>4.5174295691430772E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" s="2" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B184" s="1">
+      <c r="C184" s="1">
         <v>4.4710440657727765E-3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B185" s="1">
+      <c r="C185" s="1">
         <v>5.9247523161812697E-3</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" s="2" t="s">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B186" s="1">
+      <c r="C186" s="1">
         <v>4.9332359696871621E-5</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" s="2" t="s">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B187" s="1">
+      <c r="C187" s="1">
         <v>4.9218656328683906E-3</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B188" s="1">
+      <c r="C188" s="1">
         <v>4.5058009706328966E-4</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" s="2" t="s">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B189" s="1">
+      <c r="C189" s="1">
         <v>2.8538454725934893E-3</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B190" s="1">
+      <c r="C190" s="1">
         <v>5.9104200233583114E-2</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" s="2" t="s">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B191" s="1">
+      <c r="C191" s="1">
         <v>5.8965334361891907E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B192" s="1">
+      <c r="C192" s="1">
         <v>-3.1501095690284879E-3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" s="2" t="s">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B193" s="1">
+      <c r="C193" s="1">
         <v>8.7634888995807275E-3</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B194" s="1">
+      <c r="C194" s="1">
         <v>-5.2067287944136372E-4</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" s="2" t="s">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B195" s="1">
+      <c r="C195" s="1">
         <v>4.8839476155767367E-3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B196" s="1">
+      <c r="C196" s="1">
         <v>-7.2337293420424772E-4</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" s="2" t="s">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B197" s="1">
+      <c r="C197" s="1">
         <v>9.3262732937425038E-3</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B198" s="1">
+      <c r="C198" s="1">
         <v>1.3765417170495767E-2</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" s="2" t="s">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B199" s="1">
+      <c r="C199" s="1">
         <v>7.7021629361670061E-3</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" s="2" t="s">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B200" s="1">
+      <c r="C200" s="1">
         <v>7.5275289452253653E-3</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" s="2" t="s">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B201" s="1">
+      <c r="C201" s="1">
         <v>4.6960656715132392E-3</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B202" s="1">
+      <c r="C202" s="1">
         <v>1.0687463893703062E-3</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" s="2" t="s">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B203" s="1">
+      <c r="C203" s="1">
         <v>1.1229432907086598E-3</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B204" s="1">
+      <c r="C204" s="1">
         <v>1.6968002839999306E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" s="2" t="s">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B205" s="1">
+      <c r="C205" s="1">
         <v>-1.2827079726730251E-3</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B206" s="1">
+      <c r="C206" s="1">
         <v>-3.1380753138075313E-3</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" s="2" t="s">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B207" s="1">
+      <c r="C207" s="1">
         <v>3.6397844278658769E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" s="2" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B208" s="1">
+      <c r="C208" s="1">
         <v>5.8423368443471868E-3</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B209" s="1">
+      <c r="C209" s="1">
         <v>1.677470715341749E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" s="2" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B210" s="1">
+      <c r="C210" s="1">
         <v>-1.953264461578568E-3</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B211" s="1">
+      <c r="C211" s="1">
         <v>9.6509057789921471E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" s="2" t="s">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B212" s="1">
+      <c r="C212" s="1">
         <v>4.8353539724567208E-3</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B213" s="1">
+      <c r="C213" s="1">
         <v>2.1267478862437694E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" s="2" t="s">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B214" s="1">
+      <c r="C214" s="1">
         <v>-1.7775647363112536E-3</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B215" s="1">
+      <c r="C215" s="1">
         <v>1.895087639356037E-2</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" s="2" t="s">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B216" s="1">
+      <c r="C216" s="1">
         <v>-9.0142327426168557E-4</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B217" s="1">
+      <c r="C217" s="1">
         <v>7.0795359661745645E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" s="2" t="s">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B218" s="1">
+      <c r="C218" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" s="2" t="s">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B219" s="1">
+      <c r="C219" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B220" s="1">
+      <c r="C220" s="1">
         <v>7.6254611175756966E-3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B221" s="1">
+      <c r="C221" s="1">
         <v>5.5692227812735653E-3</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="2" t="s">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B222" s="1">
+      <c r="C222" s="1">
         <v>5.9997760459476442E-3</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B223" s="1">
+      <c r="C223" s="1">
         <v>2.9011597680662685E-3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" s="2" t="s">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B224" s="1">
+      <c r="C224" s="1">
         <v>3.8175359219525993E-3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B225" s="1">
+      <c r="C225" s="1">
         <v>2.7980956746420211E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" s="2" t="s">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B226" s="1">
+      <c r="C226" s="1">
         <v>3.8900559944404951E-3</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B227" s="1">
+      <c r="C227" s="1">
         <v>2.3703034175380634E-3</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" s="2" t="s">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B228" s="1">
+      <c r="C228" s="1">
         <v>1.5924691115905079E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" s="2" t="s">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B229" s="1">
+      <c r="C229" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B230" s="1">
+      <c r="C230" s="1">
         <v>9.4967126763812523E-3</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" s="2" t="s">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B231" s="1">
+      <c r="C231" s="1">
         <v>3.4419235989916618E-3</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
+        <f>A231</f>
+        <v>2016</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B232" s="1">
+      <c r="C232" s="1">
         <v>3.8991641591440987E-2</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" s="2" t="s">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <f t="shared" ref="A233:A296" si="4">A232</f>
+        <v>2016</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B233" s="1">
+      <c r="C233" s="1">
         <v>2.4312587060600032E-2</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B234" s="1">
+      <c r="C234" s="1">
         <v>1.3245528867718829E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" s="2" t="s">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B235" s="1">
+      <c r="C235" s="1">
         <v>1.384889377198501E-2</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B236" s="1">
+      <c r="C236" s="1">
         <v>3.520292595748218E-2</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" s="2" t="s">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B237" s="1">
+      <c r="C237" s="1">
         <v>2.104348223884352E-2</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B238" s="1">
+      <c r="C238" s="1">
         <v>1.2692337340675472E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="2" t="s">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B239" s="1">
+      <c r="C239" s="1">
         <v>2.113146642225687E-2</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B240" s="1">
+      <c r="C240" s="1">
         <v>8.0734251412710213E-3</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="2" t="s">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B241" s="1">
+      <c r="C241" s="1">
         <v>9.7522170825844849E-4</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B242" s="1">
+      <c r="C242" s="1">
         <v>5.8353612286611125E-3</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" s="2" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B243" s="1">
+      <c r="C243" s="1">
         <v>-1.9754740544297169E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" s="2" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B244" s="1">
+      <c r="C244" s="1">
         <v>-5.5448319270336331E-3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" s="2" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B245" s="1">
+      <c r="C245" s="1">
         <v>-1.4693151774642615E-3</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" s="2" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B246" s="1">
+      <c r="C246" s="1">
         <v>3.7428692384695737E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" s="2" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B247" s="1">
+      <c r="C247" s="1">
         <v>-7.20761711589392E-4</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" s="2" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B248" s="1">
+      <c r="C248" s="1">
         <v>-7.2058713994460491E-4</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" s="2" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B249" s="1">
+      <c r="C249" s="1">
         <v>-7.2697590776333741E-4</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" s="2" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B250" s="1">
+      <c r="C250" s="1">
         <v>-3.9563316892577202E-4</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" s="2" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B251" s="1">
+      <c r="C251" s="1">
         <v>-1.4906501092739443E-3</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" s="2" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B252" s="1">
+      <c r="C252" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" s="2" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B253" s="1">
+      <c r="C253" s="1">
         <v>2.7797453341459798E-4</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" s="2" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B254" s="1">
+      <c r="C254" s="1">
         <v>-7.4940382296861639E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" s="2" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B255" s="1">
+      <c r="C255" s="1">
         <v>-2.5141508872720797E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B256" s="1">
+      <c r="C256" s="1">
         <v>9.9893712893515214E-4</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" s="2" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B257" s="1">
+      <c r="C257" s="1">
         <v>2.850212620362677E-3</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" s="2" t="s">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B258" s="1">
+      <c r="C258" s="1">
         <v>-3.7230789025188477E-3</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" s="2" t="s">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B259" s="1">
+      <c r="C259" s="1">
         <v>-3.5461632626763739E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" s="2" t="s">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B260" s="1">
+      <c r="C260" s="1">
         <v>-4.7724907107588024E-3</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" s="2" t="s">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B261" s="1">
+      <c r="C261" s="1">
         <v>1.0668470604298421E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" s="2" t="s">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B262" s="1">
+      <c r="C262" s="1">
         <v>-8.77922147703571E-4</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" s="2" t="s">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B263" s="1">
+      <c r="C263" s="1">
         <v>1.615617836717361E-4</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" s="2" t="s">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B264" s="1">
+      <c r="C264" s="1">
         <v>-9.330154169690328E-4</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" s="2" t="s">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B265" s="1">
+      <c r="C265" s="1">
         <v>-9.4809609811943071E-4</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" s="2" t="s">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B266" s="1">
+      <c r="C266" s="1">
         <v>-1.715265866209262E-4</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" s="2" t="s">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B267" s="1">
+      <c r="C267" s="1">
         <v>-4.9859396501864741E-3</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" s="2" t="s">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B268" s="1">
+      <c r="C268" s="1">
         <v>3.4785940430337374E-3</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" s="2" t="s">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B269" s="1">
+      <c r="C269" s="1">
         <v>-2.3696431876062993E-3</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" s="2" t="s">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B270" s="1">
+      <c r="C270" s="1">
         <v>-1.599830310133397E-4</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" s="2" t="s">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B271" s="1">
+      <c r="C271" s="1">
         <v>3.9247953428418308E-4</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" s="2" t="s">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B272" s="1">
+      <c r="C272" s="1">
         <v>9.404907715504186E-4</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" s="2" t="s">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B273" s="1">
+      <c r="C273" s="1">
         <v>-5.1930374901790633E-4</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" s="2" t="s">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B274" s="1">
+      <c r="C274" s="1">
         <v>-5.9193205444596931E-4</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" s="2" t="s">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B275" s="1">
+      <c r="C275" s="1">
         <v>-2.9249721784872867E-3</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" s="2" t="s">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B276" s="1">
+      <c r="C276" s="1">
         <v>-8.5990603164167118E-4</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" s="2" t="s">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B277" s="1">
+      <c r="C277" s="1">
         <v>-2.635023801010898E-3</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" s="2" t="s">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B278" s="1">
+      <c r="C278" s="1">
         <v>-1.7918422848343558E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" s="2" t="s">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B279" s="1">
+      <c r="C279" s="1">
         <v>-1.4288010573127825E-3</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" s="2" t="s">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B280" s="1">
+      <c r="C280" s="1">
         <v>2.4671157123152486E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" s="2" t="s">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B281" s="1">
+      <c r="C281" s="1">
         <v>3.6105836398147629E-3</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" s="2" t="s">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B282" s="1">
+      <c r="C282" s="1">
         <v>2.7127577061032498E-2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" s="2" t="s">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A283" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B283" s="1">
+      <c r="C283" s="1">
         <v>-2.0512592621021518E-3</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" s="2" t="s">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A284" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B284" s="1">
+      <c r="C284" s="1">
         <v>1.6765221725607534E-3</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" s="2" t="s">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A285" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B285" s="1">
+      <c r="C285" s="1">
         <v>-2.8214912992262061E-4</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" s="2" t="s">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A286" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B286" s="1">
+      <c r="C286" s="1">
         <v>-1.3914173779402328E-3</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" s="2" t="s">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A287" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B287" s="1">
+      <c r="C287" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" s="2" t="s">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A288" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B288" s="1">
+      <c r="C288" s="1">
         <v>-2.0199704290140955E-5</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" s="2" t="s">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A289" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B289" s="1">
+      <c r="C289" s="1">
         <v>1.8696581196581197E-3</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" s="2" t="s">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A290" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B290" s="1">
+      <c r="C290" s="1">
         <v>-3.4431309537472744E-5</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" s="2" t="s">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A291" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B291" s="1">
+      <c r="C291" s="1">
         <v>1.209158734242346E-2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" s="2" t="s">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A292" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B292" s="1">
+      <c r="C292" s="1">
         <v>1.1216055853188751E-4</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" s="2" t="s">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A293" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B293" s="1">
+      <c r="C293" s="1">
         <v>-6.0487539547287505E-3</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" s="2" t="s">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A294" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B294" s="1">
+      <c r="C294" s="1">
         <v>-1.3491467634590092E-3</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" s="2" t="s">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A295" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B295" s="1">
+      <c r="C295" s="1">
         <v>-3.4887893829656353E-3</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" s="2" t="s">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A296" s="3">
+        <f t="shared" si="4"/>
+        <v>2016</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B296" s="1">
+      <c r="C296" s="1">
         <v>-3.4906446779989411E-3</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" s="2" t="s">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A297" s="3">
+        <f t="shared" ref="A297:A342" si="5">A296</f>
+        <v>2016</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B297" s="1">
+      <c r="C297" s="1">
         <v>-1.8527434963916554E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" s="2" t="s">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A298" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B298" s="1">
+      <c r="C298" s="1">
         <v>-9.0892685458291832E-4</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" s="2" t="s">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A299" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B299" s="1">
+      <c r="C299" s="1">
         <v>4.5917720341020145E-4</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" s="2" t="s">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A300" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B300" s="1">
+      <c r="C300" s="1">
         <v>-1.3313134803588842E-3</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" s="2" t="s">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A301" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B301" s="1">
+      <c r="C301" s="1">
         <v>5.4507766318457209E-5</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" s="2" t="s">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A302" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B302" s="1">
+      <c r="C302" s="1">
         <v>-1.052815586438146E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" s="2" t="s">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A303" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B303" s="1">
+      <c r="C303" s="1">
         <v>-8.4763226757184464E-4</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" s="2" t="s">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A304" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B304" s="1">
+      <c r="C304" s="1">
         <v>-3.1909923150342506E-3</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" s="2" t="s">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A305" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B305" s="1">
+      <c r="C305" s="1">
         <v>1.6522275843797049E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" s="2" t="s">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A306" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B306" s="1">
+      <c r="C306" s="1">
         <v>1.6515270429104126E-2</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" s="2" t="s">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A307" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B307" s="1">
+      <c r="C307" s="1">
         <v>-3.4865024964034863E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" s="2" t="s">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A308" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B308" s="1">
+      <c r="C308" s="1">
         <v>3.0794979079497909E-3</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" s="2" t="s">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A309" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B309" s="1">
+      <c r="C309" s="1">
         <v>3.2712839425998711E-4</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" s="2" t="s">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A310" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B310" s="1">
+      <c r="C310" s="1">
         <v>-7.8929096920182318E-4</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" s="2" t="s">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A311" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B311" s="1">
+      <c r="C311" s="1">
         <v>-8.7277175516479826E-4</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" s="2" t="s">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A312" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B312" s="1">
+      <c r="C312" s="1">
         <v>2.3681684772781015E-3</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" s="2" t="s">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A313" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B313" s="1">
+      <c r="C313" s="1">
         <v>-2.2945504426985907E-3</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" s="2" t="s">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A314" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B314" s="1">
+      <c r="C314" s="1">
         <v>2.0559127647995484E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" s="2" t="s">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A315" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B315" s="1">
+      <c r="C315" s="1">
         <v>-1.1439886277218459E-3</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" s="2" t="s">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A316" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B316" s="1">
+      <c r="C316" s="1">
         <v>-2.8492557197997586E-3</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" s="2" t="s">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A317" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B317" s="1">
+      <c r="C317" s="1">
         <v>-2.2602969765463544E-3</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" s="2" t="s">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A318" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B318" s="1">
+      <c r="C318" s="1">
         <v>-2.444034827058161E-3</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" s="2" t="s">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A319" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B319" s="1">
+      <c r="C319" s="1">
         <v>-1.8603362754612976E-3</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" s="2" t="s">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A320" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B320" s="1">
+      <c r="C320" s="1">
         <v>-1.6263468184590363E-3</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" s="2" t="s">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A321" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B321" s="1">
+      <c r="C321" s="1">
         <v>2.6282906655176025E-3</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" s="2" t="s">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A322" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B322" s="1">
+      <c r="C322" s="1">
         <v>-1.8777044313192887E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" s="2" t="s">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A323" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B323" s="1">
+      <c r="C323" s="1">
         <v>9.3883953969121237E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" s="2" t="s">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A324" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B324" s="1">
+      <c r="C324" s="1">
         <v>-2.8965736922424642E-3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" s="2" t="s">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A325" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B325" s="1">
+      <c r="C325" s="1">
         <v>6.0260470611990025E-2</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" s="2" t="s">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A326" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B326" s="1">
+      <c r="C326" s="1">
         <v>1.5365297813490766E-2</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" s="2" t="s">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A327" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B327" s="1">
+      <c r="C327" s="1">
         <v>-3.9249147057156342E-3</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" s="2" t="s">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A328" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B328" s="1">
+      <c r="C328" s="1">
         <v>3.4423903728296019E-3</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" s="2" t="s">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A329" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B329" s="1">
+      <c r="C329" s="1">
         <v>6.3950726896247706E-4</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" s="2" t="s">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A330" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B330" s="1">
+      <c r="C330" s="1">
         <v>4.8230635082110156E-3</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" s="2" t="s">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A331" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B331" s="1">
+      <c r="C331" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" s="2" t="s">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A332" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B332" s="1">
+      <c r="C332" s="1">
         <v>-1.997113026742184E-3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" s="2" t="s">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A333" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B333" s="1">
+      <c r="C333" s="1">
         <v>-2.8830691231839336E-4</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" s="2" t="s">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A334" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B334" s="1">
+      <c r="C334" s="1">
         <v>-1.4743248224928665E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" s="2" t="s">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A335" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B335" s="1">
+      <c r="C335" s="1">
         <v>6.0246972130640708E-4</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" s="2" t="s">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A336" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B336" s="1">
+      <c r="C336" s="1">
         <v>-1.1237453097918213E-3</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" s="2" t="s">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A337" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B337" s="1">
+      <c r="C337" s="1">
         <v>-2.6034374678211608E-3</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" s="2" t="s">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A338" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B338" s="1">
+      <c r="C338" s="1">
         <v>-1.0278778380582663E-2</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" s="2" t="s">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B339" s="1">
+      <c r="C339" s="1">
         <v>-6.610145942479098E-4</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" s="2" t="s">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B340" s="1">
+      <c r="C340" s="1">
         <v>-4.1200236948828167E-3</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" s="2" t="s">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B341" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B341" s="1">
+      <c r="C341" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" s="2" t="s">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="3">
+        <f t="shared" si="5"/>
+        <v>2016</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B342" s="1">
+      <c r="C342" s="1">
         <v>1.6324309617739082E-4</v>
       </c>
     </row>
